--- a/Examen_IIB/examen-python/documentos finales/productos-py.xlsx
+++ b/Examen_IIB/examen-python/documentos finales/productos-py.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\py-Aguirre-Maldonado-Carlos-Arturo\Examen_IIB\examen-python\documentos finales\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -567,8 +562,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,18 +580,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE47C7C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -628,7 +617,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -637,25 +626,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFE47C7C"/>
-      <color rgb="FFFFFFFF"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -697,7 +672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,10 +704,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,7 +738,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,23 +913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -990,7 +954,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +971,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +988,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1005,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1022,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1039,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1056,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1073,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1090,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1124,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1158,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1175,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1192,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1209,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1226,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1260,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1277,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1294,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1311,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1328,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1398,7 +1362,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1415,7 +1379,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1396,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1413,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1430,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1483,7 +1447,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1464,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1481,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1534,7 +1498,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1515,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1532,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1549,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1602,7 +1566,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1619,7 +1583,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1636,7 +1600,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1617,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1670,7 +1634,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1687,7 +1651,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1704,7 +1668,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1738,7 +1702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1772,7 +1736,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1753,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1770,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1787,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1840,7 +1804,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1821,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -1874,7 +1838,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1891,7 +1855,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -1908,7 +1872,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -1925,7 +1889,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1942,7 +1906,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1959,7 +1923,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -1976,7 +1940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +1957,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -2010,7 +1974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +1991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -2044,7 +2008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -2061,7 +2025,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2042,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2095,7 +2059,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2112,7 +2076,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2129,7 +2093,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -2146,7 +2110,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -2163,7 +2127,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -2180,7 +2144,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -2197,7 +2161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -2214,7 +2178,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -2231,7 +2195,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -2248,7 +2212,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -2265,7 +2229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2282,7 +2246,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2263,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2280,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -2333,7 +2297,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -2350,7 +2314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -2367,7 +2331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -2384,7 +2348,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -2401,7 +2365,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -2418,7 +2382,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -2435,7 +2399,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2452,7 +2416,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -2469,7 +2433,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -2486,7 +2450,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -2503,7 +2467,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -2520,7 +2484,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -2537,7 +2501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -2554,7 +2518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -2571,7 +2535,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -2588,7 +2552,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -2605,7 +2569,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -2622,7 +2586,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -2639,7 +2603,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -2656,7 +2620,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -2673,7 +2637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -2690,7 +2654,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>50</v>
       </c>
@@ -2707,7 +2671,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -2724,7 +2688,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -2741,7 +2705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -2758,7 +2722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -2775,7 +2739,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>53</v>
       </c>
@@ -2792,7 +2756,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -2809,7 +2773,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>55</v>
       </c>
@@ -2826,7 +2790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>56</v>
       </c>
@@ -2843,7 +2807,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>57</v>
       </c>
@@ -2860,7 +2824,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -2877,7 +2841,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>58</v>
       </c>
@@ -2894,7 +2858,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>58</v>
       </c>
@@ -2911,7 +2875,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>59</v>
       </c>
@@ -2928,7 +2892,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -2945,7 +2909,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -2962,7 +2926,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -2979,7 +2943,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>63</v>
       </c>
@@ -2996,7 +2960,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>64</v>
       </c>
@@ -3013,7 +2977,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -3030,7 +2994,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -3047,7 +3011,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>66</v>
       </c>
@@ -3064,7 +3028,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>66</v>
       </c>
@@ -3081,7 +3045,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>67</v>
       </c>
@@ -3098,7 +3062,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>68</v>
       </c>
@@ -3115,7 +3079,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>69</v>
       </c>
@@ -3132,7 +3096,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>70</v>
       </c>
@@ -3149,7 +3113,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>70</v>
       </c>
@@ -3166,7 +3130,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>71</v>
       </c>
@@ -3180,7 +3144,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>71</v>
       </c>
@@ -3197,7 +3161,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>71</v>
       </c>
@@ -3214,7 +3178,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>72</v>
       </c>
@@ -3228,7 +3192,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -3245,7 +3209,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -3262,7 +3226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>73</v>
       </c>
@@ -3276,7 +3240,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>73</v>
       </c>
@@ -3293,7 +3257,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>73</v>
       </c>
@@ -3310,7 +3274,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>74</v>
       </c>
@@ -3327,7 +3291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>75</v>
       </c>
@@ -3344,7 +3308,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>76</v>
       </c>
@@ -3361,7 +3325,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -3378,7 +3342,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>78</v>
       </c>
@@ -3395,7 +3359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>79</v>
       </c>
@@ -3412,7 +3376,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>79</v>
       </c>
@@ -3429,7 +3393,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>80</v>
       </c>
@@ -3446,7 +3410,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>80</v>
       </c>
@@ -3463,7 +3427,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>81</v>
       </c>
@@ -3480,7 +3444,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>82</v>
       </c>
